--- a/chapters/ch05-ResourceIntensity/datasets/global-primary-energy.xlsx
+++ b/chapters/ch05-ResourceIntensity/datasets/global-primary-energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch05-ResourceIntensity/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4383BE-F12A-8F41-A350-231F52FA31DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F68E60-AEED-A94E-B07D-3FBA2B6FD753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C3C60-28FC-FE4C-A3C8-3D109A483C10}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A74" sqref="A74:XFD95"/>
     </sheetView>
   </sheetViews>
@@ -4303,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
